--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_1_scho_ch.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_1_scho_ch.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF868126-B66E-4E5F-A8D1-F93499B2FDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957EC5F8-46E0-4CEC-B135-F684662FCB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6788" uniqueCount="1007">
   <si>
     <t>type</t>
   </si>
@@ -2788,9 +2788,6 @@
     <t>. &gt;= 5 and . &lt;= 14</t>
   </si>
   <si>
-    <t>L’âge doit être compris entre 4 et 15 ans</t>
-  </si>
-  <si>
     <t>select_one sex</t>
   </si>
   <si>
@@ -3117,15 +3114,6 @@
     <t>not(selected(${C3}, ${p_barcodeid}))</t>
   </si>
   <si>
-    <t>tg_sch_sth_ia_202404_1_scho_ch_v2</t>
-  </si>
-  <si>
-    <t>(2024 Avr) - 1. SCH/STH – Ecole/Localité &amp; Elève V2</t>
-  </si>
-  <si>
-    <t>tg_sch_p_2404_v2</t>
-  </si>
-  <si>
     <t>Numéro</t>
   </si>
   <si>
@@ -3274,13 +3262,43 @@
   </si>
   <si>
     <t xml:space="preserve">N DATO Kossi </t>
+  </si>
+  <si>
+    <t>L’âge doit être compris entre 5 et 14 ans</t>
+  </si>
+  <si>
+    <t>${p_collected_stool} = 'Oui'</t>
+  </si>
+  <si>
+    <t>Vous devez collecter l'échantillon de selle</t>
+  </si>
+  <si>
+    <t>(2024 Avr) - 1. SCH/STH – Ecole/Localité &amp; Elève V3</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_ia_202404_1_scho_ch_v3</t>
+  </si>
+  <si>
+    <t>p_nb_children</t>
+  </si>
+  <si>
+    <t>Combien d'enfant allez vous enregistrer?</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>${p_nb_children}</t>
+  </si>
+  <si>
+    <t>tg_sch_p_2404_v3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3415,6 +3433,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -3483,7 +3509,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3599,12 +3625,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3846,6 +3881,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4243,13 +4290,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:H3"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4268,7 +4315,7 @@
     <col min="12" max="12" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4305,16 +4352,19 @@
       <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="85" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>825</v>
       </c>
       <c r="B2" s="69" t="s">
+        <v>873</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>874</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>875</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
@@ -4326,18 +4376,18 @@
       <c r="K2" s="68"/>
       <c r="L2" s="68"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>944</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>945</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="14"/>
@@ -4350,7 +4400,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -4372,7 +4422,7 @@
       <c r="K4" s="7"/>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>18</v>
       </c>
@@ -4396,7 +4446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
@@ -4420,7 +4470,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
@@ -4442,7 +4492,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>30</v>
       </c>
@@ -4466,7 +4516,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
@@ -4490,7 +4540,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
@@ -4514,7 +4564,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>38</v>
       </c>
@@ -4538,7 +4588,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -4562,7 +4612,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
@@ -4588,7 +4638,7 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>48</v>
       </c>
@@ -4614,7 +4664,7 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>25</v>
       </c>
@@ -4638,15 +4688,15 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="66" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68" t="s">
         <v>825</v>
       </c>
       <c r="B16" s="69" t="s">
+        <v>875</v>
+      </c>
+      <c r="C16" s="68" t="s">
         <v>876</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>877</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
@@ -4658,12 +4708,26 @@
       <c r="K16" s="68"/>
       <c r="L16" s="68"/>
     </row>
-    <row r="18" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="82" t="s">
+        <v>840</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J17" s="84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>878</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>879</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -4672,21 +4736,21 @@
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="67" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="70" t="s">
+        <v>879</v>
+      </c>
+      <c r="B19" s="77" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C19" s="72" t="s">
         <v>880</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>950</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>881</v>
       </c>
       <c r="D19" s="72"/>
       <c r="E19" s="70"/>
@@ -4697,8 +4761,11 @@
       <c r="J19" s="70"/>
       <c r="K19" s="70"/>
       <c r="L19" s="70"/>
-    </row>
-    <row r="20" spans="1:12" ht="330.75" x14ac:dyDescent="0.25">
+      <c r="M19" s="12" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="330.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>825</v>
       </c>
@@ -4718,12 +4785,12 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
@@ -4732,18 +4799,18 @@
       <c r="G21" s="61"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="61"/>
@@ -4752,13 +4819,13 @@
       <c r="G22" s="61"/>
       <c r="H22" s="7"/>
       <c r="I22" s="32" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>828</v>
       </c>
@@ -4782,7 +4849,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>832</v>
       </c>
@@ -4795,10 +4862,10 @@
       <c r="D24" s="61"/>
       <c r="E24" s="7"/>
       <c r="F24" s="14" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="G24" s="76" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>835</v>
@@ -4808,7 +4875,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>832</v>
       </c>
@@ -4836,7 +4903,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>840</v>
       </c>
@@ -4852,7 +4919,7 @@
         <v>843</v>
       </c>
       <c r="G26" s="61" t="s">
-        <v>844</v>
+        <v>997</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>835</v>
@@ -4864,15 +4931,15 @@
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="61" t="s">
         <v>846</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>847</v>
       </c>
       <c r="D27" s="61"/>
       <c r="E27" s="6"/>
@@ -4888,22 +4955,26 @@
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="61" t="s">
         <v>849</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="D28" s="61" t="s">
         <v>850</v>
       </c>
-      <c r="D28" s="61" t="s">
-        <v>851</v>
-      </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="62"/>
+      <c r="F28" s="6" t="s">
+        <v>998</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>999</v>
+      </c>
       <c r="H28" s="6" t="s">
         <v>835</v>
       </c>
@@ -4914,15 +4985,15 @@
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="C29" s="61" t="s">
         <v>852</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>853</v>
       </c>
       <c r="D29" s="61"/>
       <c r="E29" s="6"/>
@@ -4938,22 +5009,22 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B30" s="32" t="s">
+        <v>853</v>
+      </c>
+      <c r="C30" s="61" t="s">
         <v>854</v>
-      </c>
-      <c r="C30" s="61" t="s">
-        <v>855</v>
       </c>
       <c r="D30" s="61"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="62"/>
       <c r="H30" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="7" t="s">
@@ -4962,22 +5033,22 @@
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>856</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="61" t="s">
         <v>858</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>859</v>
       </c>
       <c r="D31" s="61"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="62"/>
       <c r="H31" s="7" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="7" t="s">
@@ -4986,28 +5057,28 @@
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="C32" s="61" t="s">
         <v>860</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="D32" s="61" t="s">
         <v>861</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>862</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="G32" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="G32" s="62" t="s">
+      <c r="H32" s="7" t="s">
         <v>864</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>865</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="63" t="s">
@@ -5021,17 +5092,17 @@
         <v>825</v>
       </c>
       <c r="B33" s="22" t="s">
+        <v>865</v>
+      </c>
+      <c r="C33" s="64" t="s">
         <v>866</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>867</v>
       </c>
       <c r="D33" s="65"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="65"/>
       <c r="H33" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -5043,17 +5114,17 @@
         <v>825</v>
       </c>
       <c r="B34" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="C34" s="64" t="s">
         <v>869</v>
-      </c>
-      <c r="C34" s="64" t="s">
-        <v>870</v>
       </c>
       <c r="D34" s="65"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="65"/>
       <c r="H34" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -5065,10 +5136,10 @@
         <v>52</v>
       </c>
       <c r="B35" s="22" t="s">
+        <v>871</v>
+      </c>
+      <c r="C35" s="64" t="s">
         <v>872</v>
-      </c>
-      <c r="C35" s="64" t="s">
-        <v>873</v>
       </c>
       <c r="D35" s="65"/>
       <c r="E35" s="9"/>
@@ -5082,7 +5153,7 @@
     </row>
     <row r="36" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="71" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B36" s="71"/>
       <c r="C36" s="72"/>
@@ -5142,9 +5213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F934"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5179,13 +5250,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
@@ -5193,13 +5264,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1"/>
@@ -5207,13 +5278,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1"/>
@@ -5221,13 +5292,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1"/>
@@ -5235,13 +5306,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="1"/>
@@ -5249,13 +5320,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="1"/>
@@ -5263,13 +5334,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="1"/>
@@ -5277,13 +5348,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="1"/>
@@ -5291,13 +5362,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
@@ -5305,13 +5376,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="1"/>
@@ -5319,13 +5390,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="1"/>
@@ -5333,13 +5404,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="1"/>
@@ -5347,13 +5418,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
@@ -5361,13 +5432,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
@@ -5375,13 +5446,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="1"/>
@@ -5389,13 +5460,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="1"/>
@@ -5403,13 +5474,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1"/>
@@ -5417,13 +5488,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="1"/>
@@ -5431,13 +5502,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="1"/>
@@ -5445,13 +5516,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
@@ -5459,13 +5530,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="1"/>
@@ -5473,13 +5544,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="1"/>
@@ -5487,13 +5558,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="1"/>
@@ -5501,13 +5572,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="1"/>
@@ -5515,13 +5586,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
@@ -5529,13 +5600,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="1"/>
@@ -5543,13 +5614,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="1"/>
@@ -5557,13 +5628,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="1"/>
@@ -5571,13 +5642,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
@@ -5585,13 +5656,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="1"/>
@@ -5599,13 +5670,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="1"/>
@@ -5613,13 +5684,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="1"/>
@@ -5627,13 +5698,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="1"/>
@@ -5641,13 +5712,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="1"/>
@@ -5655,13 +5726,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="1"/>
@@ -5669,13 +5740,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="1"/>
@@ -5683,13 +5754,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="1"/>
@@ -5697,13 +5768,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="1"/>
@@ -5711,13 +5782,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="1"/>
@@ -5725,13 +5796,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="1"/>
@@ -5739,13 +5810,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="81" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="1"/>
@@ -6195,139 +6266,139 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>888</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>889</v>
-      </c>
       <c r="C83" s="65" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C84" s="73" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
+        <v>890</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>891</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="C85" s="61" t="s">
         <v>892</v>
-      </c>
-      <c r="C85" s="61" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C86" s="61" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="C87" s="61" t="s">
         <v>896</v>
-      </c>
-      <c r="C87" s="61" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="C88" s="61" t="s">
         <v>898</v>
-      </c>
-      <c r="C88" s="61" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="C89" s="61" t="s">
         <v>900</v>
-      </c>
-      <c r="C89" s="61" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="C90" s="61" t="s">
         <v>902</v>
-      </c>
-      <c r="C90" s="61" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B91" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="C91" s="61" t="s">
         <v>904</v>
-      </c>
-      <c r="C91" s="61" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C92" s="61" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
+        <v>906</v>
+      </c>
+      <c r="B93" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="C93" s="61" t="s">
         <v>908</v>
-      </c>
-      <c r="C93" s="61" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B94" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="C94" s="61" t="s">
         <v>910</v>
-      </c>
-      <c r="C94" s="61" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>63</v>
@@ -6338,189 +6409,189 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="C96" s="61" t="s">
         <v>913</v>
-      </c>
-      <c r="C96" s="61" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="C97" s="61" t="s">
         <v>915</v>
-      </c>
-      <c r="C97" s="61" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>916</v>
+      </c>
+      <c r="C98" s="61" t="s">
         <v>917</v>
-      </c>
-      <c r="C98" s="61" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
+        <v>918</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>919</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>920</v>
-      </c>
       <c r="C99" s="61" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B100" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="C100" s="61" t="s">
         <v>921</v>
-      </c>
-      <c r="C100" s="61" t="s">
-        <v>922</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="C101" s="61" t="s">
         <v>923</v>
-      </c>
-      <c r="C101" s="61" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B102" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="C102" s="61" t="s">
         <v>925</v>
-      </c>
-      <c r="C102" s="61" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="C103" s="61" t="s">
         <v>927</v>
-      </c>
-      <c r="C103" s="61" t="s">
-        <v>928</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C104" s="61" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C105" s="61" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="74" t="s">
+        <v>930</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>931</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="C106" s="3" t="s">
         <v>932</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="74" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>934</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>935</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>936</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="3" t="s">
         <v>937</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>938</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>939</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B110" s="75" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C110" s="75" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B111" s="75" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C111" s="75" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B112" s="75" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C112" s="75" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -17942,7 +18013,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17965,10 +18036,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>949</v>
+        <v>1000</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>948</v>
+        <v>1001</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>121</v>
@@ -28349,7 +28420,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="78" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="B1" s="80"/>
     </row>
@@ -28358,7 +28429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -28366,7 +28437,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="80" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -28374,7 +28445,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="80" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -28382,7 +28453,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -28390,7 +28461,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -28398,7 +28469,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -28406,7 +28477,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -28414,7 +28485,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -28422,7 +28493,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -28430,7 +28501,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="80" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -28438,7 +28509,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -28446,7 +28517,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -28454,7 +28525,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -28462,7 +28533,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -28470,7 +28541,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="80" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -28478,7 +28549,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -28486,7 +28557,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="80" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -28494,7 +28565,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="80" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -28502,7 +28573,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="80" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -28510,7 +28581,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="80" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -28518,7 +28589,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="80" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -28526,7 +28597,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="80" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -28534,7 +28605,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="80" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -28542,7 +28613,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="80" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -28550,7 +28621,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="80" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -28558,7 +28629,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -28566,7 +28637,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="80" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -28574,7 +28645,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="80" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -28582,7 +28653,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="80" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -28590,7 +28661,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="80" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -28598,7 +28669,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="80" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -28606,7 +28677,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="80" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -28614,7 +28685,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="80" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -28622,7 +28693,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="80" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -28630,7 +28701,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="80" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -28638,7 +28709,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="80" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -28646,7 +28717,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="80" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -28654,7 +28725,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="80" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -28662,7 +28733,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="80" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -28670,7 +28741,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="80" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -28678,7 +28749,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="80" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">

--- a/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_1_scho_ch.xlsx
+++ b/SCH-STH/Impact assessments/Togo/2024/tg_sch_sth_ia_202404_1_scho_ch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\SCH-STH\Impact assessments\Togo\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B23420-9DB8-4457-84DD-FEC6A5D21BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EAF866-1CE0-4FD4-BB20-DB465B2C9696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6802" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="1017">
   <si>
     <t>type</t>
   </si>
@@ -3288,12 +3288,6 @@
     <t>tg_sch_p_2404_v3_1</t>
   </si>
   <si>
-    <t>(2024 Avr) - 1. SCH/STH – Ecole/Localité &amp; Elève V3.1</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_ia_202404_1_scho_ch_v3_1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -3318,6 +3312,18 @@
   </si>
   <si>
     <t>Si non, où est la source d'eau potable?</t>
+  </si>
+  <si>
+    <t>${p_collected_urine} = 'Oui'</t>
+  </si>
+  <si>
+    <t>Vous devez collecter l'échantillon d'urine</t>
+  </si>
+  <si>
+    <t>(2024 Avr) - 1. SCH/STH – Ecole/Localité &amp; Elève V3.2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_ia_202404_1_scho_ch_v3_2</t>
   </si>
 </sst>
 </file>
@@ -4338,11 +4344,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4564,13 +4570,13 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B9" s="86" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C9" s="85" t="s">
         <v>1012</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C9" s="85" t="s">
-        <v>1014</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="22"/>
@@ -5067,8 +5073,12 @@
       </c>
       <c r="D30" s="60"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="61"/>
+      <c r="F30" s="6" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>1014</v>
+      </c>
       <c r="H30" s="7" t="s">
         <v>830</v>
       </c>
@@ -18118,8 +18128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -18142,10 +18152,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>119</v>
